--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value628.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value628.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.224366672549873</v>
+        <v>1.214426040649414</v>
       </c>
       <c r="B1">
-        <v>2.336585246169764</v>
+        <v>2.445568323135376</v>
       </c>
       <c r="C1">
-        <v>3.871273224020357</v>
+        <v>4.807501316070557</v>
       </c>
       <c r="D1">
-        <v>3.036078601911342</v>
+        <v>2.527350664138794</v>
       </c>
       <c r="E1">
-        <v>1.094421285161715</v>
+        <v>1.079631447792053</v>
       </c>
     </row>
   </sheetData>
